--- a/canonical models.xlsx
+++ b/canonical models.xlsx
@@ -13,157 +13,163 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">make, model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genesis,g70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genesis,g80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genesis,g90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genesis,gv60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genesis,gv70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genesis,gv80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,accent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,azera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,elantra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,elantra coupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,elantra gt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,elantra hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,elantra n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,entourage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,equus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,excel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,genesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,genesis coupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,kona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,ioniq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,ioniq 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,ioniq electric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,ioniq plug-in hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,kona electric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,kona n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,nexo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,palisade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,santa fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,santa cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,santa fe hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,santa fe plug-in hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,santa fe sport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,santa fe xl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,scoupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,sonata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,sonata hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,sonata plug-in hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,tiburon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,tucson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,tucson hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,tucson plug-in hybrid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,veloster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,veloster n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,venue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,veracruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,xg300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hyundai,xg350</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="50">
+  <si>
+    <t xml:space="preserve">make</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gv60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gv70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gv80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyundai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elantra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elantra coupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elantra gt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elantra hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elantra n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entourage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genesis coupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ioniq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ioniq 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ioniq electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ioniq plug-in hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kona electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kona n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nexo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palisade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa fe hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa fe plug-in hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa fe sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">santa fe xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scoupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonata hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonata plug-in hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiburon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tucson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tucson hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tucson plug-in hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veloster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veloster n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">venue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">veracruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xg300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xg350</t>
   </si>
 </sst>
 </file>
@@ -259,264 +265,405 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.95"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>44</v>
+        <v>9</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>46</v>
+        <v>9</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>